--- a/results/df-exp.xlsx
+++ b/results/df-exp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,11 @@
           <t>mori</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prec</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,8 +468,10 @@
       <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I2">
         <v>18353881129.88095</v>
@@ -490,6 +497,9 @@
       <c r="P2">
         <v>62.5</v>
       </c>
+      <c r="Q2">
+        <v>327</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -515,8 +525,10 @@
       <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="H3">
-        <v>2</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I3">
         <v>15147020535.38687</v>
@@ -542,6 +554,9 @@
       <c r="P3">
         <v>9.5</v>
       </c>
+      <c r="Q3">
+        <v>1485</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,8 +582,10 @@
       <c r="G4">
         <v>0.3</v>
       </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I4">
         <v>101353230784.5937</v>
@@ -594,6 +611,9 @@
       <c r="P4">
         <v>77.7</v>
       </c>
+      <c r="Q4">
+        <v>1010</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -619,8 +639,10 @@
       <c r="G5">
         <v>0.1</v>
       </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I5">
         <v>12457941907.03328</v>
@@ -646,6 +668,9 @@
       <c r="P5">
         <v>12.4</v>
       </c>
+      <c r="Q5">
+        <v>562</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -671,8 +696,10 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>3</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I6">
         <v>47112941176.47059</v>
@@ -698,6 +725,9 @@
       <c r="P6">
         <v>21.6</v>
       </c>
+      <c r="Q6">
+        <v>447</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,8 +753,10 @@
       <c r="G7">
         <v>0.3</v>
       </c>
-      <c r="H7">
-        <v>3</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I7">
         <v>274039092455.3058</v>
@@ -750,6 +782,9 @@
       <c r="P7">
         <v>32.3</v>
       </c>
+      <c r="Q7">
+        <v>2666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -775,8 +810,10 @@
       <c r="G8">
         <v>0.3</v>
       </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I8">
         <v>14250985958.67271</v>
@@ -802,6 +839,9 @@
       <c r="P8">
         <v>92.8</v>
       </c>
+      <c r="Q8">
+        <v>1039</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -827,8 +867,10 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>3</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I9">
         <v>40287647930.47611</v>
@@ -854,6 +896,9 @@
       <c r="P9">
         <v>27</v>
       </c>
+      <c r="Q9">
+        <v>1146</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -879,8 +924,10 @@
       <c r="G10">
         <v>0.2</v>
       </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I10">
         <v>16059910870.6239</v>
@@ -906,6 +953,9 @@
       <c r="P10">
         <v>90.7</v>
       </c>
+      <c r="Q10">
+        <v>748</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -931,8 +981,10 @@
       <c r="G11">
         <v>0.3</v>
       </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I11">
         <v>3036931818.181818</v>
@@ -958,6 +1010,9 @@
       <c r="P11">
         <v>58.8</v>
       </c>
+      <c r="Q11">
+        <v>1274</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -983,8 +1038,10 @@
       <c r="G12">
         <v>0.2</v>
       </c>
-      <c r="H12">
-        <v>4</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="I12">
         <v>24571753583.4922</v>
@@ -1010,6 +1067,9 @@
       <c r="P12">
         <v>27.6</v>
       </c>
+      <c r="Q12">
+        <v>1904</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1035,8 +1095,10 @@
       <c r="G13">
         <v>0.4</v>
       </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I13">
         <v>38694156862.9922</v>
@@ -1062,6 +1124,9 @@
       <c r="P13">
         <v>77.5</v>
       </c>
+      <c r="Q13">
+        <v>1604</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1087,8 +1152,10 @@
       <c r="G14">
         <v>0.1</v>
       </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I14">
         <v>11239167048.49162</v>
@@ -1114,6 +1181,9 @@
       <c r="P14">
         <v>117.7</v>
       </c>
+      <c r="Q14">
+        <v>322</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1139,8 +1209,10 @@
       <c r="G15">
         <v>0.1</v>
       </c>
-      <c r="H15">
-        <v>2</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I15">
         <v>333568923004.4686</v>
@@ -1166,6 +1238,9 @@
       <c r="P15">
         <v>14.2</v>
       </c>
+      <c r="Q15">
+        <v>3240</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1191,8 +1266,10 @@
       <c r="G16">
         <v>0.2</v>
       </c>
-      <c r="H16">
-        <v>3</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I16">
         <v>1178530757.723278</v>
@@ -1218,6 +1295,9 @@
       <c r="P16">
         <v>65.09999999999999</v>
       </c>
+      <c r="Q16">
+        <v>900</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1243,8 +1323,10 @@
       <c r="G17">
         <v>0.3</v>
       </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I17">
         <v>13518403446.95664</v>
@@ -1270,6 +1352,9 @@
       <c r="P17">
         <v>49.3</v>
       </c>
+      <c r="Q17">
+        <v>1646</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1295,8 +1380,10 @@
       <c r="G18">
         <v>0.4</v>
       </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I18">
         <v>46831342212.54731</v>
@@ -1322,6 +1409,9 @@
       <c r="P18">
         <v>87.59999999999999</v>
       </c>
+      <c r="Q18">
+        <v>1543</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1347,8 +1437,10 @@
       <c r="G19">
         <v>0.3</v>
       </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I19">
         <v>58011466450.8643</v>
@@ -1374,6 +1466,9 @@
       <c r="P19">
         <v>82.40000000000001</v>
       </c>
+      <c r="Q19">
+        <v>1348</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1399,8 +1494,10 @@
       <c r="G20">
         <v>0.2</v>
       </c>
-      <c r="H20">
-        <v>3</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I20">
         <v>85555378043.79985</v>
@@ -1426,6 +1523,9 @@
       <c r="P20">
         <v>28.8</v>
       </c>
+      <c r="Q20">
+        <v>1410</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1451,8 +1551,10 @@
       <c r="G21">
         <v>0.1</v>
       </c>
-      <c r="H21">
-        <v>2</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I21">
         <v>249712999437.2538</v>
@@ -1478,6 +1580,9 @@
       <c r="P21">
         <v>21</v>
       </c>
+      <c r="Q21">
+        <v>51</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1503,8 +1608,10 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1530,6 +1637,9 @@
       <c r="P22">
         <v>41.9</v>
       </c>
+      <c r="Q22">
+        <v>384</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1555,8 +1665,10 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I23">
         <v>4665424249.061563</v>
@@ -1582,6 +1694,9 @@
       <c r="P23">
         <v>55.3</v>
       </c>
+      <c r="Q23">
+        <v>788</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1607,8 +1722,10 @@
       <c r="G24">
         <v>0.2</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I24">
         <v>84269348327.34543</v>
@@ -1634,6 +1751,9 @@
       <c r="P24">
         <v>53.1</v>
       </c>
+      <c r="Q24">
+        <v>848</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1659,8 +1779,10 @@
       <c r="G25">
         <v>0.2</v>
       </c>
-      <c r="H25">
-        <v>3</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I25">
         <v>16862282413.87784</v>
@@ -1686,6 +1808,9 @@
       <c r="P25">
         <v>43.6</v>
       </c>
+      <c r="Q25">
+        <v>1831</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1711,8 +1836,10 @@
       <c r="G26">
         <v>0.2</v>
       </c>
-      <c r="H26">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I26">
         <v>1670670668.593905</v>
@@ -1738,6 +1865,9 @@
       <c r="P26">
         <v>53.7</v>
       </c>
+      <c r="Q26">
+        <v>836</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1763,8 +1893,10 @@
       <c r="G27">
         <v>0.2</v>
       </c>
-      <c r="H27">
-        <v>1</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I27">
         <v>65556464048.15388</v>
@@ -1790,6 +1922,9 @@
       <c r="P27">
         <v>48</v>
       </c>
+      <c r="Q27">
+        <v>1187</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1815,8 +1950,10 @@
       <c r="G28">
         <v>0.3</v>
       </c>
-      <c r="H28">
-        <v>3</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I28">
         <v>73118147941.27036</v>
@@ -1842,6 +1979,9 @@
       <c r="P28">
         <v>25.4</v>
       </c>
+      <c r="Q28">
+        <v>1996</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1867,8 +2007,10 @@
       <c r="G29">
         <v>0.4</v>
       </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I29">
         <v>10907214993.56873</v>
@@ -1894,6 +2036,9 @@
       <c r="P29">
         <v>101.1</v>
       </c>
+      <c r="Q29">
+        <v>1651</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1919,8 +2064,10 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>3</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I30">
         <v>4787635821.289285</v>
@@ -1946,6 +2093,9 @@
       <c r="P30">
         <v>30.3</v>
       </c>
+      <c r="Q30">
+        <v>2387</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1971,8 +2121,10 @@
       <c r="G31">
         <v>0.4</v>
       </c>
-      <c r="H31">
-        <v>1</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I31">
         <v>15965670198.4548</v>
@@ -1998,6 +2150,9 @@
       <c r="P31">
         <v>64.7</v>
       </c>
+      <c r="Q31">
+        <v>1440</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2023,8 +2178,10 @@
       <c r="G32">
         <v>0.3</v>
       </c>
-      <c r="H32">
-        <v>2</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I32">
         <v>24024189735.88758</v>
@@ -2050,6 +2207,9 @@
       <c r="P32">
         <v>17.4</v>
       </c>
+      <c r="Q32">
+        <v>1976</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2075,8 +2235,10 @@
       <c r="G33">
         <v>0.2</v>
       </c>
-      <c r="H33">
-        <v>3</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I33">
         <v>2713165057513.347</v>
@@ -2102,6 +2264,9 @@
       <c r="P33">
         <v>36.3</v>
       </c>
+      <c r="Q33">
+        <v>1083</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2127,8 +2292,10 @@
       <c r="G34">
         <v>0.1</v>
       </c>
-      <c r="H34">
-        <v>3</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I34">
         <v>1042240309412.582</v>
@@ -2154,6 +2321,9 @@
       <c r="P34">
         <v>24.8</v>
       </c>
+      <c r="Q34">
+        <v>2702</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2179,8 +2349,10 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>2</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I35">
         <v>42932112676.05634</v>
@@ -2206,6 +2378,9 @@
       <c r="P35">
         <v>16.1</v>
       </c>
+      <c r="Q35">
+        <v>111</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2231,8 +2406,10 @@
       <c r="G36">
         <v>0.3</v>
       </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I36">
         <v>87778582964.13878</v>
@@ -2258,6 +2435,9 @@
       <c r="P36">
         <v>44.6</v>
       </c>
+      <c r="Q36">
+        <v>630</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2283,8 +2463,10 @@
       <c r="G37">
         <v>0.2</v>
       </c>
-      <c r="H37">
-        <v>3</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I37">
         <v>8271108638.39931</v>
@@ -2310,6 +2492,9 @@
       <c r="P37">
         <v>19.2</v>
       </c>
+      <c r="Q37">
+        <v>533</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2335,8 +2520,10 @@
       <c r="G38">
         <v>0.4</v>
       </c>
-      <c r="H38">
-        <v>1</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I38">
         <v>2575892261.540438</v>
@@ -2362,6 +2549,9 @@
       <c r="P38">
         <v>86.59999999999999</v>
       </c>
+      <c r="Q38">
+        <v>788</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2387,8 +2577,10 @@
       <c r="G39">
         <v>0.2</v>
       </c>
-      <c r="H39">
-        <v>1</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I39">
         <v>3264000000</v>
@@ -2414,6 +2606,9 @@
       <c r="P39">
         <v>86.40000000000001</v>
       </c>
+      <c r="Q39">
+        <v>2391</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2439,8 +2634,10 @@
       <c r="G40">
         <v>0.2</v>
       </c>
-      <c r="H40">
-        <v>1</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I40">
         <v>13853433947.62405</v>
@@ -2466,6 +2663,9 @@
       <c r="P40">
         <v>52.3</v>
       </c>
+      <c r="Q40">
+        <v>1513</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2491,8 +2691,10 @@
       <c r="G41">
         <v>0.5</v>
       </c>
-      <c r="H41">
-        <v>1</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I41">
         <v>6917301908.62757</v>
@@ -2518,6 +2720,9 @@
       <c r="P41">
         <v>43.9</v>
       </c>
+      <c r="Q41">
+        <v>1181</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2543,8 +2748,10 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>3</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I42">
         <v>5299773145.087442</v>
@@ -2570,6 +2777,9 @@
       <c r="P42">
         <v>8.199999999999999</v>
       </c>
+      <c r="Q42">
+        <v>1972</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2595,8 +2805,10 @@
       <c r="G43">
         <v>0.2</v>
       </c>
-      <c r="H43">
-        <v>1</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I43">
         <v>17070758732.19912</v>
@@ -2622,6 +2834,9 @@
       <c r="P43">
         <v>97.40000000000001</v>
       </c>
+      <c r="Q43">
+        <v>282</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2647,8 +2862,10 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>1</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I44">
         <v>7049169770.86399</v>
@@ -2674,6 +2891,9 @@
       <c r="P44">
         <v>75.3</v>
       </c>
+      <c r="Q44">
+        <v>92</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2699,8 +2919,10 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>4</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="I45">
         <v>11456717193.25006</v>
@@ -2726,6 +2948,9 @@
       <c r="P45">
         <v>14.7</v>
       </c>
+      <c r="Q45">
+        <v>450</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2751,8 +2976,10 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>4</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="I46">
         <v>118096227400.0916</v>
@@ -2778,6 +3005,9 @@
       <c r="P46">
         <v>22.2</v>
       </c>
+      <c r="Q46">
+        <v>346</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2803,8 +3033,10 @@
       <c r="G47">
         <v>0.4</v>
       </c>
-      <c r="H47">
-        <v>1</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I47">
         <v>14845870050.70925</v>
@@ -2830,6 +3062,9 @@
       <c r="P47">
         <v>77</v>
       </c>
+      <c r="Q47">
+        <v>1032</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2855,8 +3090,10 @@
       <c r="G48">
         <v>0.3</v>
       </c>
-      <c r="H48">
-        <v>1</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I48">
         <v>76168043981.59319</v>
@@ -2882,6 +3119,9 @@
       <c r="P48">
         <v>46.4</v>
       </c>
+      <c r="Q48">
+        <v>2091</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2907,8 +3147,10 @@
       <c r="G49">
         <v>0.4</v>
       </c>
-      <c r="H49">
-        <v>3</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I49">
         <v>13454211343.59486</v>
@@ -2934,6 +3176,9 @@
       <c r="P49">
         <v>43.3</v>
       </c>
+      <c r="Q49">
+        <v>285</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2959,8 +3204,10 @@
       <c r="G50">
         <v>0.3</v>
       </c>
-      <c r="H50">
-        <v>3</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I50">
         <v>29173513475.70732</v>
@@ -2986,6 +3233,9 @@
       <c r="P50">
         <v>31.9</v>
       </c>
+      <c r="Q50">
+        <v>1500</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3011,8 +3261,10 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>3</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I51">
         <v>13063904770.3561</v>
@@ -3038,6 +3290,9 @@
       <c r="P51">
         <v>17.3</v>
       </c>
+      <c r="Q51">
+        <v>2280</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3063,8 +3318,10 @@
       <c r="G52">
         <v>0.5</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I52">
         <v>12846952856.8458</v>
@@ -3090,6 +3347,9 @@
       <c r="P52">
         <v>83.40000000000001</v>
       </c>
+      <c r="Q52">
+        <v>151</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3115,8 +3375,10 @@
       <c r="G53">
         <v>0.3</v>
       </c>
-      <c r="H53">
-        <v>1</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I53">
         <v>397190484464.3077</v>
@@ -3142,6 +3404,9 @@
       <c r="P53">
         <v>120</v>
       </c>
+      <c r="Q53">
+        <v>1150</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3167,8 +3432,10 @@
       <c r="G54">
         <v>0.3</v>
       </c>
-      <c r="H54">
-        <v>3</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I54">
         <v>314567541558.3389</v>
@@ -3194,6 +3461,9 @@
       <c r="P54">
         <v>69.40000000000001</v>
       </c>
+      <c r="Q54">
+        <v>494</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3219,8 +3489,10 @@
       <c r="G55">
         <v>0.5</v>
       </c>
-      <c r="H55">
-        <v>1</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I55">
         <v>24109509856.18658</v>
@@ -3246,6 +3518,9 @@
       <c r="P55">
         <v>46.3</v>
       </c>
+      <c r="Q55">
+        <v>3142</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3271,8 +3546,10 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>2</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I56">
         <v>222044970486.2168</v>
@@ -3298,6 +3575,9 @@
       <c r="P56">
         <v>13.7</v>
       </c>
+      <c r="Q56">
+        <v>1738</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3323,8 +3603,10 @@
       <c r="G57">
         <v>0.2</v>
       </c>
-      <c r="H57">
-        <v>3</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I57">
         <v>346841896890.2806</v>
@@ -3350,6 +3632,9 @@
       <c r="P57">
         <v>28</v>
       </c>
+      <c r="Q57">
+        <v>2348</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3375,8 +3660,10 @@
       <c r="G58">
         <v>0.3</v>
       </c>
-      <c r="H58">
-        <v>1</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I58">
         <v>9635951159.792933</v>
@@ -3402,6 +3689,9 @@
       <c r="P58">
         <v>35.9</v>
       </c>
+      <c r="Q58">
+        <v>1212</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3427,8 +3717,10 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>1</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I59">
         <v>412261829.6485756</v>
@@ -3454,6 +3746,9 @@
       <c r="P59">
         <v>30.9</v>
       </c>
+      <c r="Q59">
+        <v>3200</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3479,8 +3774,10 @@
       <c r="G60">
         <v>0.3</v>
       </c>
-      <c r="H60">
-        <v>3</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I60">
         <v>23236007428.25817</v>
@@ -3506,6 +3803,9 @@
       <c r="P60">
         <v>47</v>
       </c>
+      <c r="Q60">
+        <v>686</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3531,8 +3831,10 @@
       <c r="G61">
         <v>0.3</v>
       </c>
-      <c r="H61">
-        <v>1</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I61">
         <v>4085114794.223237</v>
@@ -3558,6 +3860,9 @@
       <c r="P61">
         <v>113.5</v>
       </c>
+      <c r="Q61">
+        <v>2526</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3583,8 +3888,10 @@
       <c r="G62">
         <v>0.2</v>
       </c>
-      <c r="H62">
-        <v>3</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I62">
         <v>368288939768.3223</v>
@@ -3610,6 +3917,9 @@
       <c r="P62">
         <v>35</v>
       </c>
+      <c r="Q62">
+        <v>495</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3635,8 +3945,10 @@
       <c r="G63">
         <v>0.2</v>
       </c>
-      <c r="H63">
-        <v>3</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I63">
         <v>7522947810.123263</v>
@@ -3662,6 +3974,9 @@
       <c r="P63">
         <v>34.8</v>
       </c>
+      <c r="Q63">
+        <v>691</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3687,8 +4002,10 @@
       <c r="G64">
         <v>0.3</v>
       </c>
-      <c r="H64">
-        <v>1</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I64">
         <v>58001200572.39646</v>
@@ -3714,6 +4031,9 @@
       <c r="P64">
         <v>51.8</v>
       </c>
+      <c r="Q64">
+        <v>1071</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3739,8 +4059,10 @@
       <c r="G65">
         <v>0.2</v>
       </c>
-      <c r="H65">
-        <v>3</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I65">
         <v>1559894900</v>
@@ -3766,6 +4088,9 @@
       <c r="P65">
         <v>45.6</v>
       </c>
+      <c r="Q65">
+        <v>1500</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3791,8 +4116,10 @@
       <c r="G66">
         <v>0.5</v>
       </c>
-      <c r="H66">
-        <v>1</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I66">
         <v>5364369025.639733</v>
@@ -3818,6 +4145,9 @@
       <c r="P66">
         <v>69.09999999999999</v>
       </c>
+      <c r="Q66">
+        <v>1168</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3843,8 +4173,10 @@
       <c r="G67">
         <v>0.2</v>
       </c>
-      <c r="H67">
-        <v>2</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="I67">
         <v>778381859840.9423</v>
@@ -3870,6 +4202,9 @@
       <c r="P67">
         <v>10.7</v>
       </c>
+      <c r="Q67">
+        <v>593</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3895,8 +4230,10 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>3</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I68">
         <v>40761142857.14286</v>
@@ -3922,6 +4259,9 @@
       <c r="P68">
         <v>42.4</v>
       </c>
+      <c r="Q68">
+        <v>161</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3947,8 +4287,10 @@
       <c r="G69">
         <v>0.3</v>
       </c>
-      <c r="H69">
-        <v>1</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I69">
         <v>32916147253.27185</v>
@@ -3974,6 +4316,9 @@
       <c r="P69">
         <v>48</v>
       </c>
+      <c r="Q69">
+        <v>1180</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3999,8 +4344,10 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>4</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="I70">
         <v>130901858421.7202</v>
@@ -4026,6 +4373,9 @@
       <c r="P70">
         <v>8.6</v>
       </c>
+      <c r="Q70">
+        <v>565</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4051,8 +4401,10 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>4</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="I71">
         <v>245213686369.1568</v>
@@ -4078,6 +4430,9 @@
       <c r="P71">
         <v>20.4</v>
       </c>
+      <c r="Q71">
+        <v>1821</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4103,8 +4458,10 @@
       <c r="G72">
         <v>0.2</v>
       </c>
-      <c r="H72">
-        <v>3</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="I72">
         <v>23486270352.33266</v>
@@ -4130,6 +4487,9 @@
       <c r="P72">
         <v>58.5</v>
       </c>
+      <c r="Q72">
+        <v>167</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4155,8 +4515,10 @@
       <c r="G73">
         <v>0.4</v>
       </c>
-      <c r="H73">
-        <v>1</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I73">
         <v>26312140828.64</v>
@@ -4182,6 +4544,9 @@
       <c r="P73">
         <v>63.3</v>
       </c>
+      <c r="Q73">
+        <v>1020</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4207,8 +4572,10 @@
       <c r="G74">
         <v>0.4</v>
       </c>
-      <c r="H74">
-        <v>1</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I74">
         <v>24311560500</v>
@@ -4233,6 +4600,9 @@
       </c>
       <c r="P74">
         <v>55.9</v>
+      </c>
+      <c r="Q74">
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-exp.xlsx
+++ b/results/df-exp.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I7">
@@ -983,7 +983,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I11">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I16">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I17">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I18">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I20">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I24">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I26">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I28">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I30">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I31">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I33">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I34">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I36">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I38">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I40">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I42">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I46">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I50">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I54">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I55">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I57">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I58">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I59">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I65">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I70">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I72">

--- a/results/df-exp.xlsx
+++ b/results/df-exp.xlsx
@@ -400,47 +400,47 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>cgdp</t>
+          <t>upop</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tpop</t>
+          <t>popd</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>upop</t>
+          <t>land</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>popd</t>
+          <t>lita</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>lity</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>lita</t>
+          <t>mori</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>lity</t>
+          <t>rifr</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>mori</t>
+          <t>cotw</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>prec</t>
+          <t>moru</t>
         </is>
       </c>
     </row>
@@ -474,31 +474,28 @@
         </is>
       </c>
       <c r="I2">
-        <v>18353881129.88095</v>
+        <v>25.495</v>
       </c>
       <c r="J2">
-        <v>37172386</v>
+        <v>56.93776000980302</v>
       </c>
       <c r="K2">
-        <v>25.495</v>
+        <v>652860</v>
       </c>
       <c r="L2">
-        <v>56.93776000980302</v>
+        <v>43.019718170166</v>
       </c>
       <c r="M2">
-        <v>652860</v>
+        <v>0.759329974651337</v>
       </c>
       <c r="N2">
-        <v>43.019718170166</v>
+        <v>62.5</v>
       </c>
       <c r="O2">
-        <v>0.759329974651337</v>
-      </c>
-      <c r="P2">
-        <v>62.5</v>
+        <v>1299.026900739467</v>
       </c>
       <c r="Q2">
-        <v>327</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="3">
@@ -531,31 +528,31 @@
         </is>
       </c>
       <c r="I3">
-        <v>15147020535.38687</v>
+        <v>60.319</v>
       </c>
       <c r="J3">
-        <v>2866376</v>
+        <v>104.6122627737226</v>
       </c>
       <c r="K3">
-        <v>60.319</v>
+        <v>27400</v>
       </c>
       <c r="L3">
-        <v>104.6122627737226</v>
+        <v>98.1411514282227</v>
       </c>
       <c r="M3">
-        <v>27400</v>
+        <v>1.00582003593445</v>
       </c>
       <c r="N3">
-        <v>98.1411514282227</v>
+        <v>9.5</v>
       </c>
       <c r="O3">
-        <v>1.00582003593445</v>
+        <v>9361.54604018783</v>
       </c>
       <c r="P3">
-        <v>9.5</v>
+        <v>59.95145631067962</v>
       </c>
       <c r="Q3">
-        <v>1485</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -588,31 +585,31 @@
         </is>
       </c>
       <c r="I4">
-        <v>101353230784.5937</v>
+        <v>65.514</v>
       </c>
       <c r="J4">
-        <v>30809762</v>
+        <v>24.71305205743162</v>
       </c>
       <c r="K4">
-        <v>65.514</v>
+        <v>1246700</v>
       </c>
       <c r="L4">
-        <v>24.71305205743162</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1246700</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>77.7</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4963.653313231878</v>
       </c>
       <c r="P4">
-        <v>77.7</v>
+        <v>43.98963730569948</v>
       </c>
       <c r="Q4">
-        <v>1010</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="5">
@@ -645,31 +642,31 @@
         </is>
       </c>
       <c r="I5">
-        <v>12457941907.03328</v>
+        <v>63.149</v>
       </c>
       <c r="J5">
-        <v>2951776</v>
+        <v>103.680224798033</v>
       </c>
       <c r="K5">
-        <v>63.149</v>
+        <v>28470</v>
       </c>
       <c r="L5">
-        <v>103.680224798033</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>28470</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2329.183318850221</v>
       </c>
       <c r="P5">
-        <v>12.4</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="Q5">
-        <v>562</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -702,31 +699,31 @@
         </is>
       </c>
       <c r="I6">
-        <v>47112941176.47059</v>
+        <v>55.68</v>
       </c>
       <c r="J6">
-        <v>9939771</v>
+        <v>120.2343171646305</v>
       </c>
       <c r="K6">
-        <v>55.68</v>
+        <v>82670</v>
       </c>
       <c r="L6">
-        <v>120.2343171646305</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>82670</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>823.5206843735961</v>
       </c>
       <c r="P6">
-        <v>21.6</v>
+        <v>24.48847028255927</v>
       </c>
       <c r="Q6">
-        <v>447</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -755,35 +752,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I7">
-        <v>274039092455.3058</v>
+        <v>36.632</v>
       </c>
       <c r="J7">
-        <v>161356039</v>
+        <v>1239.579311669356</v>
       </c>
       <c r="K7">
-        <v>36.632</v>
+        <v>130170</v>
       </c>
       <c r="L7">
-        <v>1239.579311669356</v>
+        <v>73.9122009277344</v>
       </c>
       <c r="M7">
-        <v>130170</v>
+        <v>1.03276002407074</v>
       </c>
       <c r="N7">
-        <v>73.9122009277344</v>
+        <v>32.3</v>
       </c>
       <c r="O7">
-        <v>1.03276002407074</v>
+        <v>657.6038707390534</v>
       </c>
       <c r="P7">
-        <v>32.3</v>
+        <v>14.19624217118998</v>
       </c>
       <c r="Q7">
-        <v>2666</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="8">
@@ -816,31 +813,31 @@
         </is>
       </c>
       <c r="I8">
-        <v>14250985958.67271</v>
+        <v>47.312</v>
       </c>
       <c r="J8">
-        <v>11485048</v>
+        <v>101.8539198297269</v>
       </c>
       <c r="K8">
-        <v>47.312</v>
+        <v>112760</v>
       </c>
       <c r="L8">
-        <v>101.8539198297269</v>
+        <v>42.3624000549316</v>
       </c>
       <c r="M8">
-        <v>112760</v>
+        <v>0.744589984416962</v>
       </c>
       <c r="N8">
-        <v>42.3624000549316</v>
+        <v>92.8</v>
       </c>
       <c r="O8">
-        <v>0.744589984416962</v>
+        <v>921.6833983522807</v>
       </c>
       <c r="P8">
-        <v>92.8</v>
+        <v>67.59581881533102</v>
       </c>
       <c r="Q8">
-        <v>1039</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="9">
@@ -873,31 +870,31 @@
         </is>
       </c>
       <c r="I9">
-        <v>40287647930.47611</v>
+        <v>69.425</v>
       </c>
       <c r="J9">
-        <v>11353142</v>
+        <v>10.48014585064156</v>
       </c>
       <c r="K9">
-        <v>69.425</v>
+        <v>1083300</v>
       </c>
       <c r="L9">
-        <v>10.48014585064156</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1083300</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27115.51495266533</v>
       </c>
       <c r="P9">
-        <v>27</v>
+        <v>40.7103825136612</v>
       </c>
       <c r="Q9">
-        <v>1146</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="10">
@@ -930,31 +927,28 @@
         </is>
       </c>
       <c r="I10">
-        <v>16059910870.6239</v>
+        <v>29.358</v>
       </c>
       <c r="J10">
-        <v>19751535</v>
+        <v>72.19128289473684</v>
       </c>
       <c r="K10">
-        <v>29.358</v>
+        <v>273600</v>
       </c>
       <c r="L10">
-        <v>72.19128289473684</v>
+        <v>41.2244491577148</v>
       </c>
       <c r="M10">
-        <v>273600</v>
+        <v>0.8847699761390691</v>
       </c>
       <c r="N10">
-        <v>41.2244491577148</v>
+        <v>90.7</v>
       </c>
       <c r="O10">
-        <v>0.8847699761390691</v>
-      </c>
-      <c r="P10">
-        <v>90.7</v>
+        <v>651.2694753018816</v>
       </c>
       <c r="Q10">
-        <v>748</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="11">
@@ -983,35 +977,32 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I11">
-        <v>3036931818.181818</v>
+        <v>13.032</v>
       </c>
       <c r="J11">
-        <v>11175378</v>
+        <v>435.1782710280374</v>
       </c>
       <c r="K11">
-        <v>13.032</v>
+        <v>25680</v>
       </c>
       <c r="L11">
-        <v>435.1782710280374</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>25680</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>58.8</v>
+        <v>929.1565253757635</v>
       </c>
       <c r="Q11">
-        <v>1274</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1044,31 +1035,31 @@
         </is>
       </c>
       <c r="I12">
-        <v>24571753583.4922</v>
+        <v>23.388</v>
       </c>
       <c r="J12">
-        <v>16249798</v>
+        <v>92.05641287106278</v>
       </c>
       <c r="K12">
-        <v>23.388</v>
+        <v>176520</v>
       </c>
       <c r="L12">
-        <v>92.05641287106278</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>176520</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>7533.067731273612</v>
       </c>
       <c r="P12">
-        <v>27.6</v>
+        <v>63.60655737704918</v>
       </c>
       <c r="Q12">
-        <v>1904</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
@@ -1101,31 +1092,31 @@
         </is>
       </c>
       <c r="I13">
-        <v>38694156862.9922</v>
+        <v>56.374</v>
       </c>
       <c r="J13">
-        <v>25216237</v>
+        <v>53.34398891497958</v>
       </c>
       <c r="K13">
-        <v>56.374</v>
+        <v>472710</v>
       </c>
       <c r="L13">
-        <v>53.34398891497958</v>
+        <v>77.0710372924805</v>
       </c>
       <c r="M13">
-        <v>472710</v>
+        <v>0.939469993114471</v>
       </c>
       <c r="N13">
-        <v>77.0710372924805</v>
+        <v>77.5</v>
       </c>
       <c r="O13">
-        <v>0.939469993114471</v>
+        <v>11112.89993973389</v>
       </c>
       <c r="P13">
-        <v>77.5</v>
+        <v>53.80794701986756</v>
       </c>
       <c r="Q13">
-        <v>1604</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="14">
@@ -1158,31 +1149,28 @@
         </is>
       </c>
       <c r="I14">
-        <v>11239167048.49162</v>
+        <v>23.059</v>
       </c>
       <c r="J14">
-        <v>15477751</v>
+        <v>12.29173364040661</v>
       </c>
       <c r="K14">
-        <v>23.059</v>
+        <v>1259200</v>
       </c>
       <c r="L14">
-        <v>12.29173364040661</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1259200</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>117.7</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>117.7</v>
+        <v>998.8830489746366</v>
       </c>
       <c r="Q14">
-        <v>322</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -1215,31 +1203,31 @@
         </is>
       </c>
       <c r="I15">
-        <v>333568923004.4686</v>
+        <v>80.77800000000001</v>
       </c>
       <c r="J15">
-        <v>49661056</v>
+        <v>44.75985218566922</v>
       </c>
       <c r="K15">
-        <v>80.77800000000001</v>
+        <v>1109500</v>
       </c>
       <c r="L15">
-        <v>44.75985218566922</v>
+        <v>95.09250640869141</v>
       </c>
       <c r="M15">
-        <v>1109500</v>
+        <v>1.00440001487732</v>
       </c>
       <c r="N15">
-        <v>95.09250640869141</v>
+        <v>14.2</v>
       </c>
       <c r="O15">
-        <v>1.00440001487732</v>
+        <v>43856.20203572925</v>
       </c>
       <c r="P15">
-        <v>14.2</v>
+        <v>41.2</v>
       </c>
       <c r="Q15">
-        <v>3240</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
@@ -1268,35 +1256,32 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I16">
-        <v>1178530757.723278</v>
+        <v>28.965</v>
       </c>
       <c r="J16">
-        <v>832322</v>
+        <v>447.2444775402266</v>
       </c>
       <c r="K16">
-        <v>28.965</v>
+        <v>1861.00006103516</v>
       </c>
       <c r="L16">
-        <v>447.2444775402266</v>
+        <v>58.8170204162598</v>
       </c>
       <c r="M16">
-        <v>1861.00006103516</v>
+        <v>1.00080001354218</v>
       </c>
       <c r="N16">
-        <v>58.8170204162598</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="O16">
-        <v>1.00080001354218</v>
-      </c>
-      <c r="P16">
-        <v>65.09999999999999</v>
+        <v>1474.397094454792</v>
       </c>
       <c r="Q16">
-        <v>900</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="17">
@@ -1325,35 +1310,35 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I17">
-        <v>13518403446.95664</v>
+        <v>66.916</v>
       </c>
       <c r="J17">
-        <v>5244363</v>
+        <v>15.35684626647145</v>
       </c>
       <c r="K17">
-        <v>66.916</v>
+        <v>341500</v>
       </c>
       <c r="L17">
-        <v>15.35684626647145</v>
+        <v>80.29875946044921</v>
       </c>
       <c r="M17">
-        <v>341500</v>
+        <v>0.9226700067520141</v>
       </c>
       <c r="N17">
-        <v>80.29875946044921</v>
+        <v>49.3</v>
       </c>
       <c r="O17">
-        <v>0.9226700067520141</v>
+        <v>43438.25955808027</v>
       </c>
       <c r="P17">
-        <v>49.3</v>
+        <v>76.51515151515152</v>
       </c>
       <c r="Q17">
-        <v>1646</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="18">
@@ -1382,35 +1367,35 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I18">
-        <v>46831342212.54731</v>
+        <v>44.46</v>
       </c>
       <c r="J18">
-        <v>84068091</v>
+        <v>37.08259235570455</v>
       </c>
       <c r="K18">
-        <v>44.46</v>
+        <v>2267050</v>
       </c>
       <c r="L18">
-        <v>37.08259235570455</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>2267050</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11056.67894416677</v>
       </c>
       <c r="P18">
-        <v>87.59999999999999</v>
+        <v>96.78111587982832</v>
       </c>
       <c r="Q18">
-        <v>1543</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="19">
@@ -1443,31 +1428,31 @@
         </is>
       </c>
       <c r="I19">
-        <v>58011466450.8643</v>
+        <v>50.779</v>
       </c>
       <c r="J19">
-        <v>25069229</v>
+        <v>78.8340534591195</v>
       </c>
       <c r="K19">
-        <v>50.779</v>
+        <v>318000</v>
       </c>
       <c r="L19">
-        <v>78.8340534591195</v>
+        <v>47.1653518676758</v>
       </c>
       <c r="M19">
-        <v>318000</v>
+        <v>0.830529987812042</v>
       </c>
       <c r="N19">
-        <v>47.1653518676758</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O19">
-        <v>0.830529987812042</v>
+        <v>3144.351814829924</v>
       </c>
       <c r="P19">
-        <v>82.40000000000001</v>
+        <v>31.12299465240642</v>
       </c>
       <c r="Q19">
-        <v>1348</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="20">
@@ -1500,31 +1485,31 @@
         </is>
       </c>
       <c r="I20">
-        <v>85555378043.79985</v>
+        <v>81.074</v>
       </c>
       <c r="J20">
-        <v>10627165</v>
+        <v>219.9785758642103</v>
       </c>
       <c r="K20">
-        <v>81.074</v>
+        <v>48310</v>
       </c>
       <c r="L20">
-        <v>219.9785758642103</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>48310</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2235.299835986064</v>
       </c>
       <c r="P20">
-        <v>28.8</v>
+        <v>26.32398753894081</v>
       </c>
       <c r="Q20">
-        <v>1410</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
@@ -1557,31 +1542,31 @@
         </is>
       </c>
       <c r="I21">
-        <v>249712999437.2538</v>
+        <v>42.704</v>
       </c>
       <c r="J21">
-        <v>98423595</v>
+        <v>98.87346928524788</v>
       </c>
       <c r="K21">
-        <v>42.704</v>
+        <v>995450</v>
       </c>
       <c r="L21">
-        <v>98.87346928524788</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>995450</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>10.36886264557404</v>
       </c>
       <c r="P21">
-        <v>21</v>
+        <v>22.54862353552259</v>
       </c>
       <c r="Q21">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1620,25 +1605,25 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>101000</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>76.5705184936523</v>
       </c>
       <c r="M22">
-        <v>101000</v>
+        <v>0.9882299900054931</v>
       </c>
       <c r="N22">
-        <v>76.5705184936523</v>
+        <v>41.9</v>
       </c>
       <c r="O22">
-        <v>0.9882299900054931</v>
+        <v>820.4188179464271</v>
       </c>
       <c r="P22">
-        <v>41.9</v>
+        <v>30.35714285714285</v>
       </c>
       <c r="Q22">
-        <v>384</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="23">
@@ -1671,31 +1656,28 @@
         </is>
       </c>
       <c r="I23">
-        <v>4665424249.061563</v>
+        <v>23.799</v>
       </c>
       <c r="J23">
-        <v>1136191</v>
+        <v>66.05761627906976</v>
       </c>
       <c r="K23">
-        <v>23.799</v>
+        <v>17200</v>
       </c>
       <c r="L23">
-        <v>66.05761627906976</v>
+        <v>88.4193801879883</v>
       </c>
       <c r="M23">
-        <v>17200</v>
+        <v>1.02479994297028</v>
       </c>
       <c r="N23">
-        <v>88.4193801879883</v>
+        <v>55.3</v>
       </c>
       <c r="O23">
-        <v>1.02479994297028</v>
-      </c>
-      <c r="P23">
-        <v>55.3</v>
+        <v>2347.182003515439</v>
       </c>
       <c r="Q23">
-        <v>788</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="24">
@@ -1724,35 +1706,35 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I24">
-        <v>84269348327.34543</v>
+        <v>20.763</v>
       </c>
       <c r="J24">
-        <v>109224559</v>
+        <v>109.224559</v>
       </c>
       <c r="K24">
-        <v>20.763</v>
+        <v>1000000</v>
       </c>
       <c r="L24">
-        <v>109.224559</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>53.1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1146.616282718132</v>
       </c>
       <c r="P24">
-        <v>53.1</v>
+        <v>46.87842278203724</v>
       </c>
       <c r="Q24">
-        <v>848</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="25">
@@ -1785,31 +1767,31 @@
         </is>
       </c>
       <c r="I25">
-        <v>16862282413.87784</v>
+        <v>89.37000000000001</v>
       </c>
       <c r="J25">
-        <v>2119275</v>
+        <v>8.224764233321691</v>
       </c>
       <c r="K25">
-        <v>89.37000000000001</v>
+        <v>257670</v>
       </c>
       <c r="L25">
-        <v>8.224764233321691</v>
+        <v>84.6671600341797</v>
       </c>
       <c r="M25">
-        <v>257670</v>
+        <v>1.03617000579834</v>
       </c>
       <c r="N25">
-        <v>84.6671600341797</v>
+        <v>43.6</v>
       </c>
       <c r="O25">
-        <v>1.03617000579834</v>
+        <v>79425.69411518566</v>
       </c>
       <c r="P25">
-        <v>43.6</v>
+        <v>23.78223495702006</v>
       </c>
       <c r="Q25">
-        <v>1831</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="26">
@@ -1838,35 +1820,32 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I26">
-        <v>1670670668.593905</v>
+        <v>61.27</v>
       </c>
       <c r="J26">
-        <v>2280102</v>
+        <v>225.3065217391304</v>
       </c>
       <c r="K26">
-        <v>61.27</v>
+        <v>10120</v>
       </c>
       <c r="L26">
-        <v>225.3065217391304</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>10120</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>53.7</v>
+        <v>1355.078427422451</v>
       </c>
       <c r="Q26">
-        <v>836</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="27">
@@ -1899,31 +1878,31 @@
         </is>
       </c>
       <c r="I27">
-        <v>65556464048.15388</v>
+        <v>56.06</v>
       </c>
       <c r="J27">
-        <v>29767108</v>
+        <v>130.8214291992617</v>
       </c>
       <c r="K27">
-        <v>56.06</v>
+        <v>227540</v>
       </c>
       <c r="L27">
-        <v>130.8214291992617</v>
+        <v>79.0396423339844</v>
       </c>
       <c r="M27">
-        <v>227540</v>
+        <v>0.994040012359619</v>
       </c>
       <c r="N27">
-        <v>79.0396423339844</v>
+        <v>48</v>
       </c>
       <c r="O27">
-        <v>0.994040012359619</v>
+        <v>1040.46941859496</v>
       </c>
       <c r="P27">
-        <v>48</v>
+        <v>55.37757437070938</v>
       </c>
       <c r="Q27">
-        <v>1187</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="28">
@@ -1956,31 +1935,31 @@
         </is>
       </c>
       <c r="I28">
-        <v>73118147941.27036</v>
+        <v>51.054</v>
       </c>
       <c r="J28">
-        <v>16346950</v>
+        <v>152.5471257932064</v>
       </c>
       <c r="K28">
-        <v>51.054</v>
+        <v>107160</v>
       </c>
       <c r="L28">
-        <v>152.5471257932064</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>107160</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>6787.913386722469</v>
       </c>
       <c r="P28">
-        <v>25.4</v>
+        <v>39.96282527881041</v>
       </c>
       <c r="Q28">
-        <v>1996</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="29">
@@ -2013,31 +1992,28 @@
         </is>
       </c>
       <c r="I29">
-        <v>10907214993.56873</v>
+        <v>36.14</v>
       </c>
       <c r="J29">
-        <v>12414318</v>
+        <v>50.52221227413316</v>
       </c>
       <c r="K29">
-        <v>36.14</v>
+        <v>245720</v>
       </c>
       <c r="L29">
-        <v>50.52221227413316</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>245720</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>101.1</v>
       </c>
       <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>101.1</v>
+        <v>18727.92787328054</v>
       </c>
       <c r="Q29">
-        <v>1651</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="30">
@@ -2070,31 +2046,28 @@
         </is>
       </c>
       <c r="I30">
-        <v>4787635821.289285</v>
+        <v>26.606</v>
       </c>
       <c r="J30">
-        <v>779004</v>
+        <v>3.95734823469647</v>
       </c>
       <c r="K30">
-        <v>26.606</v>
+        <v>196850</v>
       </c>
       <c r="L30">
-        <v>3.95734823469647</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>196850</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>30.3</v>
+        <v>310879.0912526879</v>
       </c>
       <c r="Q30">
-        <v>2387</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="31">
@@ -2123,35 +2096,35 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I31">
-        <v>15965670198.4548</v>
+        <v>55.278</v>
       </c>
       <c r="J31">
-        <v>11123176</v>
+        <v>403.5985486211901</v>
       </c>
       <c r="K31">
-        <v>55.278</v>
+        <v>27560</v>
       </c>
       <c r="L31">
-        <v>403.5985486211901</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>27560</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>64.7</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1184.626336437886</v>
       </c>
       <c r="P31">
-        <v>64.7</v>
+        <v>42.39130434782609</v>
       </c>
       <c r="Q31">
-        <v>1440</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="32">
@@ -2184,31 +2157,31 @@
         </is>
       </c>
       <c r="I32">
-        <v>24024189735.88758</v>
+        <v>57.096</v>
       </c>
       <c r="J32">
-        <v>9587522</v>
+        <v>85.68703190633659</v>
       </c>
       <c r="K32">
-        <v>57.096</v>
+        <v>111890</v>
       </c>
       <c r="L32">
-        <v>85.68703190633659</v>
+        <v>87.2052383422852</v>
       </c>
       <c r="M32">
-        <v>111890</v>
+        <v>1.03354001045227</v>
       </c>
       <c r="N32">
-        <v>87.2052383422852</v>
+        <v>17.4</v>
       </c>
       <c r="O32">
-        <v>1.03354001045227</v>
+        <v>9615.004242755842</v>
       </c>
       <c r="P32">
-        <v>17.4</v>
+        <v>39.54285714285714</v>
       </c>
       <c r="Q32">
-        <v>1976</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
@@ -2237,35 +2210,35 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I33">
-        <v>2713165057513.347</v>
+        <v>34.03</v>
       </c>
       <c r="J33">
-        <v>1352617328</v>
+        <v>454.9380725752475</v>
       </c>
       <c r="K33">
-        <v>34.03</v>
+        <v>2973190</v>
       </c>
       <c r="L33">
-        <v>454.9380725752475</v>
+        <v>74.3729934692383</v>
       </c>
       <c r="M33">
-        <v>2973190</v>
+        <v>0.969640016555786</v>
       </c>
       <c r="N33">
-        <v>74.3729934692383</v>
+        <v>36.3</v>
       </c>
       <c r="O33">
-        <v>0.969640016555786</v>
+        <v>1080.185602330858</v>
       </c>
       <c r="P33">
-        <v>36.3</v>
+        <v>11.4786078913882</v>
       </c>
       <c r="Q33">
-        <v>1083</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="34">
@@ -2298,31 +2271,31 @@
         </is>
       </c>
       <c r="I34">
-        <v>1042240309412.582</v>
+        <v>55.325</v>
       </c>
       <c r="J34">
-        <v>267663435</v>
+        <v>147.7521900892596</v>
       </c>
       <c r="K34">
-        <v>55.325</v>
+        <v>1811570</v>
       </c>
       <c r="L34">
-        <v>147.7521900892596</v>
+        <v>95.658561706543</v>
       </c>
       <c r="M34">
-        <v>1811570</v>
+        <v>0.999790012836456</v>
       </c>
       <c r="N34">
-        <v>95.658561706543</v>
+        <v>24.8</v>
       </c>
       <c r="O34">
-        <v>0.999790012836456</v>
+        <v>7629.06248238448</v>
       </c>
       <c r="P34">
-        <v>24.8</v>
+        <v>30.80658832153575</v>
       </c>
       <c r="Q34">
-        <v>2702</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="35">
@@ -2355,31 +2328,31 @@
         </is>
       </c>
       <c r="I35">
-        <v>42932112676.05634</v>
+        <v>90.979</v>
       </c>
       <c r="J35">
-        <v>9956011</v>
+        <v>112.1424983104303</v>
       </c>
       <c r="K35">
-        <v>90.979</v>
+        <v>88780</v>
       </c>
       <c r="L35">
-        <v>112.1424983104303</v>
+        <v>98.22711181640631</v>
       </c>
       <c r="M35">
-        <v>88780</v>
+        <v>1.00299000740051</v>
       </c>
       <c r="N35">
-        <v>98.22711181640631</v>
+        <v>16.1</v>
       </c>
       <c r="O35">
-        <v>1.00299000740051</v>
+        <v>69.74004857056931</v>
       </c>
       <c r="P35">
-        <v>16.1</v>
+        <v>29.19950228121111</v>
       </c>
       <c r="Q35">
-        <v>111</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
@@ -2408,35 +2381,35 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I36">
-        <v>87778582964.13878</v>
+        <v>27.03</v>
       </c>
       <c r="J36">
-        <v>51393010</v>
+        <v>90.29941666373827</v>
       </c>
       <c r="K36">
-        <v>27.03</v>
+        <v>569140</v>
       </c>
       <c r="L36">
-        <v>90.29941666373827</v>
+        <v>81.53497314453131</v>
       </c>
       <c r="M36">
-        <v>569140</v>
+        <v>1.00556004047394</v>
       </c>
       <c r="N36">
-        <v>81.53497314453131</v>
+        <v>44.6</v>
       </c>
       <c r="O36">
-        <v>1.00556004047394</v>
+        <v>412.1742904673465</v>
       </c>
       <c r="P36">
-        <v>44.6</v>
+        <v>52.87449392712551</v>
       </c>
       <c r="Q36">
-        <v>630</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="37">
@@ -2469,31 +2442,31 @@
         </is>
       </c>
       <c r="I37">
-        <v>8271108638.39931</v>
+        <v>36.351</v>
       </c>
       <c r="J37">
-        <v>6322800</v>
+        <v>32.96558915537018</v>
       </c>
       <c r="K37">
-        <v>36.351</v>
+        <v>191800</v>
       </c>
       <c r="L37">
-        <v>32.96558915537018</v>
+        <v>99.58599853515631</v>
       </c>
       <c r="M37">
-        <v>191800</v>
+        <v>1.00119996070862</v>
       </c>
       <c r="N37">
-        <v>99.58599853515631</v>
+        <v>19.2</v>
       </c>
       <c r="O37">
-        <v>1.00119996070862</v>
+        <v>7894.227356329257</v>
       </c>
       <c r="P37">
-        <v>19.2</v>
+        <v>27.7511961722488</v>
       </c>
       <c r="Q37">
-        <v>533</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
@@ -2522,35 +2495,32 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I38">
-        <v>2575892261.540438</v>
+        <v>28.153</v>
       </c>
       <c r="J38">
-        <v>2108132</v>
+        <v>69.43781291172596</v>
       </c>
       <c r="K38">
-        <v>28.153</v>
+        <v>30360</v>
       </c>
       <c r="L38">
-        <v>69.43781291172596</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>30360</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>86.59999999999999</v>
+        <v>2500.702874421683</v>
       </c>
       <c r="Q38">
-        <v>788</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="39">
@@ -2583,31 +2553,28 @@
         </is>
       </c>
       <c r="I39">
-        <v>3264000000</v>
+        <v>51.151</v>
       </c>
       <c r="J39">
-        <v>4818977</v>
+        <v>50.03090739202658</v>
       </c>
       <c r="K39">
-        <v>51.151</v>
+        <v>96320</v>
       </c>
       <c r="L39">
-        <v>50.03090739202658</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>96320</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>86.40000000000001</v>
+        <v>42533.02902368835</v>
       </c>
       <c r="Q39">
-        <v>2391</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="40">
@@ -2636,35 +2603,32 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I40">
-        <v>13853433947.62405</v>
+        <v>37.191</v>
       </c>
       <c r="J40">
-        <v>26262368</v>
+        <v>45.13985562048814</v>
       </c>
       <c r="K40">
-        <v>37.191</v>
+        <v>581800</v>
       </c>
       <c r="L40">
-        <v>45.13985562048814</v>
+        <v>74.8043212890625</v>
       </c>
       <c r="M40">
-        <v>581800</v>
+        <v>0.987249970436096</v>
       </c>
       <c r="N40">
-        <v>74.8043212890625</v>
+        <v>52.3</v>
       </c>
       <c r="O40">
-        <v>0.987249970436096</v>
-      </c>
-      <c r="P40">
-        <v>52.3</v>
+        <v>13179.22890951853</v>
       </c>
       <c r="Q40">
-        <v>1513</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="41">
@@ -2697,31 +2661,28 @@
         </is>
       </c>
       <c r="I41">
-        <v>6917301908.62757</v>
+        <v>16.937</v>
       </c>
       <c r="J41">
-        <v>18143315</v>
+        <v>192.4407615613067</v>
       </c>
       <c r="K41">
-        <v>16.937</v>
+        <v>94280</v>
       </c>
       <c r="L41">
-        <v>192.4407615613067</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>94280</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>43.9</v>
+        <v>913.3991237254008</v>
       </c>
       <c r="Q41">
-        <v>1181</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="42">
@@ -2754,31 +2715,28 @@
         </is>
       </c>
       <c r="I42">
-        <v>5299773145.087442</v>
+        <v>39.808</v>
       </c>
       <c r="J42">
-        <v>515696</v>
+        <v>1718.986666666667</v>
       </c>
       <c r="K42">
-        <v>39.808</v>
+        <v>300</v>
       </c>
       <c r="L42">
-        <v>1718.986666666667</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>8.199999999999999</v>
+        <v>60.43488946458716</v>
       </c>
       <c r="Q42">
-        <v>1972</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
@@ -2811,31 +2769,28 @@
         </is>
       </c>
       <c r="I43">
-        <v>17070758732.19912</v>
+        <v>42.356</v>
       </c>
       <c r="J43">
-        <v>19077690</v>
+        <v>15.63501585818602</v>
       </c>
       <c r="K43">
-        <v>42.356</v>
+        <v>1220190</v>
       </c>
       <c r="L43">
-        <v>15.63501585818602</v>
+        <v>35.4737701416016</v>
       </c>
       <c r="M43">
-        <v>1220190</v>
+        <v>0.750400006771088</v>
       </c>
       <c r="N43">
-        <v>35.4737701416016</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="O43">
-        <v>0.750400006771088</v>
-      </c>
-      <c r="P43">
-        <v>97.40000000000001</v>
+        <v>3241.071900263143</v>
       </c>
       <c r="Q43">
-        <v>282</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="44">
@@ -2868,31 +2823,28 @@
         </is>
       </c>
       <c r="I44">
-        <v>7049169770.86399</v>
+        <v>53.672</v>
       </c>
       <c r="J44">
-        <v>4403319</v>
+        <v>4.272163578150772</v>
       </c>
       <c r="K44">
-        <v>53.672</v>
+        <v>1030700</v>
       </c>
       <c r="L44">
-        <v>4.272163578150772</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>1030700</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>75.3</v>
       </c>
       <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>75.3</v>
+        <v>93.40177192501518</v>
       </c>
       <c r="Q44">
-        <v>92</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="45">
@@ -2921,35 +2873,35 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I45">
-        <v>11456717193.25006</v>
+        <v>42.629</v>
       </c>
       <c r="J45">
-        <v>2706049</v>
+        <v>94.2644302783293</v>
       </c>
       <c r="K45">
-        <v>42.629</v>
+        <v>32890</v>
       </c>
       <c r="L45">
-        <v>94.2644302783293</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>32890</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>587.9880573092361</v>
       </c>
       <c r="P45">
-        <v>14.7</v>
+        <v>24.68965517241379</v>
       </c>
       <c r="Q45">
-        <v>450</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
@@ -2982,31 +2934,31 @@
         </is>
       </c>
       <c r="I46">
-        <v>118096227400.0916</v>
+        <v>62.453</v>
       </c>
       <c r="J46">
-        <v>36029138</v>
+        <v>80.72851893345283</v>
       </c>
       <c r="K46">
-        <v>62.453</v>
+        <v>446300</v>
       </c>
       <c r="L46">
-        <v>80.72851893345283</v>
+        <v>73.7500076293945</v>
       </c>
       <c r="M46">
-        <v>446300</v>
+        <v>0.993470013141632</v>
       </c>
       <c r="N46">
-        <v>73.7500076293945</v>
+        <v>22.2</v>
       </c>
       <c r="O46">
-        <v>0.993470013141632</v>
+        <v>815.0350012565591</v>
       </c>
       <c r="P46">
-        <v>22.2</v>
+        <v>28.84579175296554</v>
       </c>
       <c r="Q46">
-        <v>346</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="47">
@@ -3039,31 +2991,31 @@
         </is>
       </c>
       <c r="I47">
-        <v>14845870050.70925</v>
+        <v>35.988</v>
       </c>
       <c r="J47">
-        <v>29495962</v>
+        <v>37.50853531371602</v>
       </c>
       <c r="K47">
-        <v>35.988</v>
+        <v>786380</v>
       </c>
       <c r="L47">
-        <v>37.50853531371602</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>786380</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>3500.99394369934</v>
       </c>
       <c r="P47">
-        <v>77</v>
+        <v>56.84754521963825</v>
       </c>
       <c r="Q47">
-        <v>1032</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="48">
@@ -3096,31 +3048,31 @@
         </is>
       </c>
       <c r="I48">
-        <v>76168043981.59319</v>
+        <v>30.579</v>
       </c>
       <c r="J48">
-        <v>53708395</v>
+        <v>82.23861548355485</v>
       </c>
       <c r="K48">
-        <v>30.579</v>
+        <v>653080</v>
       </c>
       <c r="L48">
-        <v>82.23861548355485</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>653080</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>18788.90044675809</v>
       </c>
       <c r="P48">
-        <v>46.4</v>
+        <v>36.60531697341514</v>
       </c>
       <c r="Q48">
-        <v>2091</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="49">
@@ -3153,31 +3105,31 @@
         </is>
       </c>
       <c r="I49">
-        <v>13454211343.59486</v>
+        <v>50.032</v>
       </c>
       <c r="J49">
-        <v>2448255</v>
+        <v>2.973745581751266</v>
       </c>
       <c r="K49">
-        <v>50.032</v>
+        <v>823290</v>
       </c>
       <c r="L49">
-        <v>2.973745581751266</v>
+        <v>91.5272674560547</v>
       </c>
       <c r="M49">
-        <v>823290</v>
+        <v>1.02172005176544</v>
       </c>
       <c r="N49">
-        <v>91.5272674560547</v>
+        <v>43.3</v>
       </c>
       <c r="O49">
-        <v>1.02172005176544</v>
+        <v>2563.885918730643</v>
       </c>
       <c r="P49">
-        <v>43.3</v>
+        <v>55.43175487465182</v>
       </c>
       <c r="Q49">
-        <v>285</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="50">
@@ -3206,35 +3158,35 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I50">
-        <v>29173513475.70732</v>
+        <v>19.74</v>
       </c>
       <c r="J50">
-        <v>28087871</v>
+        <v>195.939107080572</v>
       </c>
       <c r="K50">
-        <v>19.74</v>
+        <v>143350</v>
       </c>
       <c r="L50">
-        <v>195.939107080572</v>
+        <v>67.9084320068359</v>
       </c>
       <c r="M50">
-        <v>143350</v>
+        <v>0.966489970684052</v>
       </c>
       <c r="N50">
-        <v>67.9084320068359</v>
+        <v>31.9</v>
       </c>
       <c r="O50">
-        <v>0.966489970684052</v>
+        <v>7174.109038638983</v>
       </c>
       <c r="P50">
-        <v>31.9</v>
+        <v>44.01349072512647</v>
       </c>
       <c r="Q50">
-        <v>1500</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="51">
@@ -3267,31 +3219,31 @@
         </is>
       </c>
       <c r="I51">
-        <v>13063904770.3561</v>
+        <v>58.522</v>
       </c>
       <c r="J51">
-        <v>6465513</v>
+        <v>53.72704836297158</v>
       </c>
       <c r="K51">
-        <v>58.522</v>
+        <v>120340</v>
       </c>
       <c r="L51">
-        <v>53.72704836297158</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>120340</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>24464.1420987634</v>
       </c>
       <c r="P51">
-        <v>17.3</v>
+        <v>41.62995594713656</v>
       </c>
       <c r="Q51">
-        <v>2280</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="52">
@@ -3324,31 +3276,31 @@
         </is>
       </c>
       <c r="I52">
-        <v>12846952856.8458</v>
+        <v>16.425</v>
       </c>
       <c r="J52">
-        <v>22442948</v>
+        <v>17.71765058814242</v>
       </c>
       <c r="K52">
-        <v>16.425</v>
+        <v>1266700</v>
       </c>
       <c r="L52">
-        <v>17.71765058814242</v>
+        <v>35.0499992370605</v>
       </c>
       <c r="M52">
-        <v>1266700</v>
+        <v>0.696300029754639</v>
       </c>
       <c r="N52">
-        <v>35.0499992370605</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="O52">
-        <v>0.696300029754639</v>
+        <v>162.0184949203961</v>
       </c>
       <c r="P52">
-        <v>83.40000000000001</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="Q52">
-        <v>151</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="53">
@@ -3381,31 +3333,31 @@
         </is>
       </c>
       <c r="I53">
-        <v>397190484464.3077</v>
+        <v>50.344</v>
       </c>
       <c r="J53">
-        <v>195874740</v>
+        <v>215.0649889653809</v>
       </c>
       <c r="K53">
-        <v>50.344</v>
+        <v>910770</v>
       </c>
       <c r="L53">
-        <v>215.0649889653809</v>
+        <v>62.0160102844238</v>
       </c>
       <c r="M53">
-        <v>910770</v>
+        <v>0.836749970912933</v>
       </c>
       <c r="N53">
-        <v>62.0160102844238</v>
+        <v>120</v>
       </c>
       <c r="O53">
-        <v>0.836749970912933</v>
+        <v>1157.836047597037</v>
       </c>
       <c r="P53">
-        <v>120</v>
+        <v>35.38896276595745</v>
       </c>
       <c r="Q53">
-        <v>1150</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3434,35 +3386,35 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I54">
-        <v>314567541558.3389</v>
+        <v>36.666</v>
       </c>
       <c r="J54">
-        <v>212215030</v>
+        <v>275.2893187007057</v>
       </c>
       <c r="K54">
-        <v>36.666</v>
+        <v>770880</v>
       </c>
       <c r="L54">
-        <v>275.2893187007057</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>770880</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>264.5544816428675</v>
       </c>
       <c r="P54">
-        <v>69.40000000000001</v>
+        <v>28.93109219238885</v>
       </c>
       <c r="Q54">
-        <v>494</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="55">
@@ -3491,35 +3443,32 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I55">
-        <v>24109509856.18658</v>
+        <v>13.169</v>
       </c>
       <c r="J55">
-        <v>8606316</v>
+        <v>19.00436337941085</v>
       </c>
       <c r="K55">
-        <v>13.169</v>
+        <v>452860</v>
       </c>
       <c r="L55">
-        <v>19.00436337941085</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>452860</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>46.3</v>
+        <v>94927.38173808125</v>
       </c>
       <c r="Q55">
-        <v>3142</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="56">
@@ -3552,31 +3501,31 @@
         </is>
       </c>
       <c r="I56">
-        <v>222044970486.2168</v>
+        <v>77.907</v>
       </c>
       <c r="J56">
-        <v>31989256</v>
+        <v>24.99160625</v>
       </c>
       <c r="K56">
-        <v>77.907</v>
+        <v>1280000</v>
       </c>
       <c r="L56">
-        <v>24.99160625</v>
+        <v>94.4082717895508</v>
       </c>
       <c r="M56">
-        <v>1280000</v>
+        <v>0.998870015144348</v>
       </c>
       <c r="N56">
-        <v>94.4082717895508</v>
+        <v>13.7</v>
       </c>
       <c r="O56">
-        <v>0.998870015144348</v>
+        <v>52187.52386164016</v>
       </c>
       <c r="P56">
-        <v>13.7</v>
+        <v>40.30131826741997</v>
       </c>
       <c r="Q56">
-        <v>1738</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57">
@@ -3609,31 +3558,31 @@
         </is>
       </c>
       <c r="I57">
-        <v>346841896890.2806</v>
+        <v>46.907</v>
       </c>
       <c r="J57">
-        <v>106651922</v>
+        <v>357.6883053291746</v>
       </c>
       <c r="K57">
-        <v>46.907</v>
+        <v>298170</v>
       </c>
       <c r="L57">
-        <v>357.6883053291746</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>298170</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>4554.389412122838</v>
       </c>
       <c r="P57">
-        <v>28</v>
+        <v>27.83408212308014</v>
       </c>
       <c r="Q57">
-        <v>2348</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="58">
@@ -3662,35 +3611,32 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I58">
-        <v>9635951159.792933</v>
+        <v>17.211</v>
       </c>
       <c r="J58">
-        <v>12301939</v>
+        <v>498.6598702877989</v>
       </c>
       <c r="K58">
-        <v>17.211</v>
+        <v>24670</v>
       </c>
       <c r="L58">
-        <v>498.6598702877989</v>
+        <v>73.21559143066411</v>
       </c>
       <c r="M58">
-        <v>24670</v>
+        <v>1.04718005657196</v>
       </c>
       <c r="N58">
-        <v>73.21559143066411</v>
+        <v>35.9</v>
       </c>
       <c r="O58">
-        <v>1.04718005657196</v>
-      </c>
-      <c r="P58">
-        <v>35.9</v>
+        <v>792.9262961653167</v>
       </c>
       <c r="Q58">
-        <v>1212</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="59">
@@ -3719,35 +3665,32 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I59">
-        <v>412261829.6485756</v>
+        <v>72.803</v>
       </c>
       <c r="J59">
-        <v>211028</v>
+        <v>219.8208333333333</v>
       </c>
       <c r="K59">
-        <v>72.803</v>
+        <v>960</v>
       </c>
       <c r="L59">
-        <v>219.8208333333333</v>
+        <v>92.8166427612305</v>
       </c>
       <c r="M59">
-        <v>960</v>
+        <v>1.00144994258881</v>
       </c>
       <c r="N59">
-        <v>92.8166427612305</v>
+        <v>30.9</v>
       </c>
       <c r="O59">
-        <v>1.00144994258881</v>
-      </c>
-      <c r="P59">
-        <v>30.9</v>
+        <v>10526.8749185133</v>
       </c>
       <c r="Q59">
-        <v>3200</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="60">
@@ -3780,31 +3723,31 @@
         </is>
       </c>
       <c r="I60">
-        <v>23236007428.25817</v>
+        <v>47.192</v>
       </c>
       <c r="J60">
-        <v>15854360</v>
+        <v>82.34747831506778</v>
       </c>
       <c r="K60">
-        <v>47.192</v>
+        <v>192530</v>
       </c>
       <c r="L60">
-        <v>82.34747831506778</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>192530</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1673.218918450747</v>
       </c>
       <c r="P60">
-        <v>47</v>
+        <v>38.85350318471338</v>
       </c>
       <c r="Q60">
-        <v>686</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="61">
@@ -3837,31 +3780,28 @@
         </is>
       </c>
       <c r="I61">
-        <v>4085114794.223237</v>
+        <v>42.055</v>
       </c>
       <c r="J61">
-        <v>7650154</v>
+        <v>105.9871709614852</v>
       </c>
       <c r="K61">
-        <v>42.055</v>
+        <v>72180</v>
       </c>
       <c r="L61">
-        <v>105.9871709614852</v>
+        <v>43.2063293457031</v>
       </c>
       <c r="M61">
-        <v>72180</v>
+        <v>0.888390004634857</v>
       </c>
       <c r="N61">
-        <v>43.2063293457031</v>
+        <v>113.5</v>
       </c>
       <c r="O61">
-        <v>0.888390004634857</v>
-      </c>
-      <c r="P61">
-        <v>113.5</v>
+        <v>21366.29155025932</v>
       </c>
       <c r="Q61">
-        <v>2526</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="62">
@@ -3894,31 +3834,31 @@
         </is>
       </c>
       <c r="I62">
-        <v>368288939768.3223</v>
+        <v>66.355</v>
       </c>
       <c r="J62">
-        <v>57779622</v>
+        <v>47.63011977676842</v>
       </c>
       <c r="K62">
-        <v>66.355</v>
+        <v>1213090</v>
       </c>
       <c r="L62">
-        <v>47.63011977676842</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>1213090</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>785.9586935548983</v>
       </c>
       <c r="P62">
-        <v>35</v>
+        <v>12.04929464755242</v>
       </c>
       <c r="Q62">
-        <v>495</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="63">
@@ -3951,31 +3891,31 @@
         </is>
       </c>
       <c r="I63">
-        <v>7522947810.123263</v>
+        <v>27.134</v>
       </c>
       <c r="J63">
-        <v>9100837</v>
+        <v>65.57271417249082</v>
       </c>
       <c r="K63">
-        <v>27.134</v>
+        <v>138790</v>
       </c>
       <c r="L63">
-        <v>65.57271417249082</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>138790</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>7146.180723374565</v>
       </c>
       <c r="P63">
-        <v>34.8</v>
+        <v>33.47639484978541</v>
       </c>
       <c r="Q63">
-        <v>691</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="64">
@@ -4008,31 +3948,31 @@
         </is>
       </c>
       <c r="I64">
-        <v>58001200572.39646</v>
+        <v>33.776</v>
       </c>
       <c r="J64">
-        <v>56318348</v>
+        <v>63.57907879882592</v>
       </c>
       <c r="K64">
-        <v>33.776</v>
+        <v>885800</v>
       </c>
       <c r="L64">
-        <v>63.57907879882592</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>885800</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1536.662967333509</v>
       </c>
       <c r="P64">
-        <v>51.8</v>
+        <v>57.56991321118612</v>
       </c>
       <c r="Q64">
-        <v>1071</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="65">
@@ -4061,35 +4001,32 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I65">
-        <v>1559894900</v>
+        <v>30.578</v>
       </c>
       <c r="J65">
-        <v>1267972</v>
+        <v>85.27047747141897</v>
       </c>
       <c r="K65">
-        <v>30.578</v>
+        <v>14870</v>
       </c>
       <c r="L65">
-        <v>85.27047747141897</v>
+        <v>68.06683349609381</v>
       </c>
       <c r="M65">
-        <v>14870</v>
+        <v>1.02590000629425</v>
       </c>
       <c r="N65">
-        <v>68.06683349609381</v>
+        <v>45.6</v>
       </c>
       <c r="O65">
-        <v>1.02590000629425</v>
-      </c>
-      <c r="P65">
-        <v>45.6</v>
+        <v>6607.623017210384</v>
       </c>
       <c r="Q65">
-        <v>1500</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="66">
@@ -4122,31 +4059,31 @@
         </is>
       </c>
       <c r="I66">
-        <v>5364369025.639733</v>
+        <v>41.702</v>
       </c>
       <c r="J66">
-        <v>7889094</v>
+        <v>145.0467733039162</v>
       </c>
       <c r="K66">
-        <v>41.702</v>
+        <v>54390</v>
       </c>
       <c r="L66">
-        <v>145.0467733039162</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>54390</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1493.802343970722</v>
       </c>
       <c r="P66">
-        <v>69.09999999999999</v>
+        <v>77.32558139534885</v>
       </c>
       <c r="Q66">
-        <v>1168</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="67">
@@ -4179,31 +4116,31 @@
         </is>
       </c>
       <c r="I67">
-        <v>778381859840.9423</v>
+        <v>75.143</v>
       </c>
       <c r="J67">
-        <v>82319724</v>
+        <v>106.9601288931045</v>
       </c>
       <c r="K67">
-        <v>75.143</v>
+        <v>769630</v>
       </c>
       <c r="L67">
-        <v>106.9601288931045</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>769630</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>2798.948266213075</v>
       </c>
       <c r="P67">
-        <v>10.7</v>
+        <v>19.83328449089903</v>
       </c>
       <c r="Q67">
-        <v>593</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68">
@@ -4236,31 +4173,31 @@
         </is>
       </c>
       <c r="I68">
-        <v>40761142857.14286</v>
+        <v>51.593</v>
       </c>
       <c r="J68">
-        <v>5850908</v>
+        <v>12.45059476943375</v>
       </c>
       <c r="K68">
-        <v>51.593</v>
+        <v>469930</v>
       </c>
       <c r="L68">
-        <v>12.45059476943375</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>469930</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>42.4</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>244.0223639115066</v>
       </c>
       <c r="P68">
-        <v>42.4</v>
+        <v>17.55223880597015</v>
       </c>
       <c r="Q68">
-        <v>161</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -4293,31 +4230,28 @@
         </is>
       </c>
       <c r="I69">
-        <v>32916147253.27185</v>
+        <v>23.774</v>
       </c>
       <c r="J69">
-        <v>42723139</v>
+        <v>213.0617344903252</v>
       </c>
       <c r="K69">
-        <v>23.774</v>
+        <v>200520</v>
       </c>
       <c r="L69">
-        <v>213.0617344903252</v>
+        <v>76.5274963378906</v>
       </c>
       <c r="M69">
-        <v>200520</v>
+        <v>1.01249003410339</v>
       </c>
       <c r="N69">
-        <v>76.5274963378906</v>
+        <v>48</v>
       </c>
       <c r="O69">
-        <v>1.01249003410339</v>
-      </c>
-      <c r="P69">
-        <v>48</v>
+        <v>947.4651238695253</v>
       </c>
       <c r="Q69">
-        <v>1180</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="70">
@@ -4350,31 +4284,31 @@
         </is>
       </c>
       <c r="I70">
-        <v>130901858421.7202</v>
+        <v>69.352</v>
       </c>
       <c r="J70">
-        <v>44622518</v>
+        <v>77.02967080391514</v>
       </c>
       <c r="K70">
-        <v>69.352</v>
+        <v>579290</v>
       </c>
       <c r="L70">
-        <v>77.02967080391514</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>579290</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1229.056547419556</v>
       </c>
       <c r="P70">
-        <v>8.6</v>
+        <v>11.41033229052169</v>
       </c>
       <c r="Q70">
-        <v>565</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71">
@@ -4403,35 +4337,35 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I71">
-        <v>245213686369.1568</v>
+        <v>35.919</v>
       </c>
       <c r="J71">
-        <v>95540395</v>
+        <v>308.1252459122134</v>
       </c>
       <c r="K71">
-        <v>35.919</v>
+        <v>310070</v>
       </c>
       <c r="L71">
-        <v>308.1252459122134</v>
+        <v>95.00038146972661</v>
       </c>
       <c r="M71">
-        <v>310070</v>
+        <v>0.998910009860992</v>
       </c>
       <c r="N71">
-        <v>95.00038146972661</v>
+        <v>20.4</v>
       </c>
       <c r="O71">
-        <v>0.998910009860992</v>
+        <v>3799.289196756054</v>
       </c>
       <c r="P71">
-        <v>20.4</v>
+        <v>22.28037122322239</v>
       </c>
       <c r="Q71">
-        <v>1821</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="72">
@@ -4464,31 +4398,31 @@
         </is>
       </c>
       <c r="I72">
-        <v>23486270352.33266</v>
+        <v>36.642</v>
       </c>
       <c r="J72">
-        <v>28498687</v>
+        <v>53.97785290830918</v>
       </c>
       <c r="K72">
-        <v>36.642</v>
+        <v>527970</v>
       </c>
       <c r="L72">
-        <v>53.97785290830918</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>527970</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>75.44506932521679</v>
       </c>
       <c r="P72">
-        <v>58.5</v>
+        <v>34.62980318650422</v>
       </c>
       <c r="Q72">
-        <v>167</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="73">
@@ -4521,31 +4455,31 @@
         </is>
       </c>
       <c r="I73">
-        <v>26312140828.64</v>
+        <v>43.521</v>
       </c>
       <c r="J73">
-        <v>17351822</v>
+        <v>23.3414789007116</v>
       </c>
       <c r="K73">
-        <v>43.521</v>
+        <v>743390</v>
       </c>
       <c r="L73">
-        <v>23.3414789007116</v>
+        <v>86.7479629516602</v>
       </c>
       <c r="M73">
-        <v>743390</v>
+        <v>0.989939987659454</v>
       </c>
       <c r="N73">
-        <v>86.7479629516602</v>
+        <v>63.3</v>
       </c>
       <c r="O73">
-        <v>0.989939987659454</v>
+        <v>4758.60239017122</v>
       </c>
       <c r="P73">
-        <v>63.3</v>
+        <v>35.10971786833856</v>
       </c>
       <c r="Q73">
-        <v>1020</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="74">
@@ -4578,31 +4512,31 @@
         </is>
       </c>
       <c r="I74">
-        <v>24311560500</v>
+        <v>32.209</v>
       </c>
       <c r="J74">
-        <v>14439018</v>
+        <v>37.32459092671578</v>
       </c>
       <c r="K74">
-        <v>32.209</v>
+        <v>386850</v>
       </c>
       <c r="L74">
-        <v>37.32459092671578</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>386850</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>55.9</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>861.1518995388342</v>
       </c>
       <c r="P74">
-        <v>55.9</v>
+        <v>22.28024369016536</v>
       </c>
       <c r="Q74">
-        <v>657</v>
+        <v>24.6</v>
       </c>
     </row>
   </sheetData>
